--- a/test/bom-m-diff.xlsx
+++ b/test/bom-m-diff.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -611,11 +615,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -624,22 +625,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -647,7 +633,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -682,325 +668,612 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="12" spans="1:15" ht="15">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5" t="n">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" ht="70">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5">
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1016,11 +1289,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5" t="n">
+    <row r="17" spans="1:15" ht="140">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1036,11 +1309,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+    <row r="18" spans="1:15" ht="70">
+      <c r="A18" s="4">
         <v>5</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="5">
         <v>5</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1056,11 +1329,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="5" t="n">
+    <row r="19" spans="1:15" ht="126">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5">
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1076,11 +1349,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="5" t="n">
+    <row r="20" spans="1:15" ht="98">
+      <c r="A20" s="4">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5">
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1096,30 +1369,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:15">
+      <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" ht="392">
+      <c r="A22" s="4">
         <v>28</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="5">
         <v>28</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1135,11 +1408,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="5" t="n">
+    <row r="23" spans="1:15" ht="28">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5">
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1155,11 +1428,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+    <row r="24" spans="1:15" ht="336">
+      <c r="A24" s="4">
         <v>26</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="5">
         <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1175,11 +1448,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" s="5" t="n">
+    <row r="25" spans="1:15" ht="28">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5">
         <v>1</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1195,11 +1468,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+    <row r="26" spans="1:15" ht="70">
+      <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="5" t="n">
+      <c r="B26" s="5">
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -1215,11 +1488,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+    <row r="27" spans="1:15" ht="28">
+      <c r="A27" s="4">
         <v>2</v>
       </c>
-      <c r="B27" s="5" t="n">
+      <c r="B27" s="5">
         <v>2</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1235,11 +1508,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+    <row r="28" spans="1:15" ht="84">
+      <c r="A28" s="4">
         <v>11</v>
       </c>
-      <c r="B28" s="5" t="n">
+      <c r="B28" s="5">
         <v>11</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1255,11 +1528,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+    <row r="29" spans="1:15" ht="168">
+      <c r="A29" s="4">
         <v>20</v>
       </c>
-      <c r="B29" s="5" t="n">
+      <c r="B29" s="5">
         <v>20</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1275,11 +1548,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+    <row r="30" spans="1:15" ht="392">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="n">
+      <c r="B30" s="5">
         <v>28</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1295,11 +1568,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+    <row r="31" spans="1:15" ht="28">
+      <c r="A31" s="4">
         <v>2</v>
       </c>
-      <c r="B31" s="5" t="n">
+      <c r="B31" s="5">
         <v>2</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1315,11 +1588,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+    <row r="32" spans="1:15" ht="196">
+      <c r="A32" s="4">
         <v>14</v>
       </c>
-      <c r="B32" s="5" t="n">
+      <c r="B32" s="5">
         <v>14</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -1335,11 +1608,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+    <row r="33" spans="1:6" ht="238">
+      <c r="A33" s="4">
         <v>23</v>
       </c>
-      <c r="B33" s="5" t="n">
+      <c r="B33" s="5">
         <v>23</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1355,11 +1628,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
+    <row r="34" spans="1:6" ht="266">
+      <c r="A34" s="4">
         <v>27</v>
       </c>
-      <c r="B34" s="5" t="n">
+      <c r="B34" s="5">
         <v>27</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1375,11 +1648,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
+    <row r="35" spans="1:6" ht="409">
+      <c r="A35" s="4">
         <v>72</v>
       </c>
-      <c r="B35" s="5" t="n">
+      <c r="B35" s="5">
         <v>72</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1395,11 +1668,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
+    <row r="36" spans="1:6" ht="168">
+      <c r="A36" s="4">
         <v>12</v>
       </c>
-      <c r="B36" s="5" t="n">
+      <c r="B36" s="5">
         <v>12</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -1415,11 +1688,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" s="5" t="n">
+    <row r="37" spans="1:6" ht="28">
+      <c r="A37" s="4">
+        <v>1</v>
+      </c>
+      <c r="B37" s="5">
         <v>1</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1435,11 +1708,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B38" s="5" t="n">
+    <row r="38" spans="1:6" ht="28">
+      <c r="A38" s="4">
+        <v>1</v>
+      </c>
+      <c r="B38" s="5">
         <v>1</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1455,11 +1728,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" s="5" t="n">
+    <row r="39" spans="1:6" ht="28">
+      <c r="A39" s="4">
+        <v>1</v>
+      </c>
+      <c r="B39" s="5">
         <v>1</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -1475,11 +1748,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B40" s="5" t="n">
+    <row r="40" spans="1:6" ht="28">
+      <c r="A40" s="4">
+        <v>1</v>
+      </c>
+      <c r="B40" s="5">
         <v>1</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1495,11 +1768,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B41" s="5" t="n">
+    <row r="41" spans="1:6" ht="28">
+      <c r="A41" s="4">
+        <v>1</v>
+      </c>
+      <c r="B41" s="5">
         <v>1</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -1515,11 +1788,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
+    <row r="42" spans="1:6" ht="28">
+      <c r="A42" s="4">
         <v>2</v>
       </c>
-      <c r="B42" s="5" t="n">
+      <c r="B42" s="5">
         <v>2</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -1535,11 +1808,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" s="5" t="n">
+    <row r="43" spans="1:6" ht="28">
+      <c r="A43" s="4">
+        <v>1</v>
+      </c>
+      <c r="B43" s="5">
         <v>1</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -1555,11 +1828,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
+    <row r="44" spans="1:6" ht="28">
+      <c r="A44" s="4">
         <v>2</v>
       </c>
-      <c r="B44" s="5" t="n">
+      <c r="B44" s="5">
         <v>2</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -1575,11 +1848,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
+    <row r="45" spans="1:6" ht="126">
+      <c r="A45" s="4">
         <v>9</v>
       </c>
-      <c r="B45" s="5" t="n">
+      <c r="B45" s="5">
         <v>9</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -1595,11 +1868,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
+    <row r="46" spans="1:6" ht="98">
+      <c r="A46" s="4">
         <v>7</v>
       </c>
-      <c r="B46" s="5" t="n">
+      <c r="B46" s="5">
         <v>7</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -1615,11 +1888,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
+    <row r="47" spans="1:6" ht="392">
+      <c r="A47" s="4">
         <v>28</v>
       </c>
-      <c r="B47" s="5" t="n">
+      <c r="B47" s="5">
         <v>28</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -1635,11 +1908,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
+    <row r="48" spans="1:6" ht="42">
+      <c r="A48" s="4">
         <v>3</v>
       </c>
-      <c r="B48" s="5" t="n">
+      <c r="B48" s="5">
         <v>3</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -1655,11 +1928,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
+    <row r="49" spans="1:15" ht="126">
+      <c r="A49" s="4">
         <v>10</v>
       </c>
-      <c r="B49" s="5" t="n">
+      <c r="B49" s="5">
         <v>10</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -1675,30 +1948,30 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:15">
+      <c r="A50" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" ht="42">
+      <c r="A51" s="4">
         <v>3</v>
       </c>
-      <c r="B51" s="5" t="n">
+      <c r="B51" s="5">
         <v>3</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -1714,11 +1987,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
+    <row r="52" spans="1:15" ht="42">
+      <c r="A52" s="4">
         <v>2</v>
       </c>
-      <c r="B52" s="5" t="n">
+      <c r="B52" s="5">
         <v>2</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -1734,11 +2007,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
+    <row r="53" spans="1:15" ht="70">
+      <c r="A53" s="4">
         <v>8</v>
       </c>
-      <c r="B53" s="5" t="n">
+      <c r="B53" s="5">
         <v>8</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -1754,11 +2027,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B54" s="5" t="n">
+    <row r="54" spans="1:15" ht="28">
+      <c r="A54" s="4">
+        <v>1</v>
+      </c>
+      <c r="B54" s="5">
         <v>1</v>
       </c>
       <c r="C54" s="5" t="s">
@@ -1774,11 +2047,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B55" s="5" t="n">
+    <row r="55" spans="1:15" ht="98">
+      <c r="A55" s="4">
+        <v>1</v>
+      </c>
+      <c r="B55" s="5">
         <v>1</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -1794,11 +2067,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B56" s="5" t="n">
+    <row r="56" spans="1:15" ht="28">
+      <c r="A56" s="4">
+        <v>1</v>
+      </c>
+      <c r="B56" s="5">
         <v>1</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -1814,11 +2087,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B57" s="5" t="n">
+    <row r="57" spans="1:15" ht="70">
+      <c r="A57" s="4">
+        <v>1</v>
+      </c>
+      <c r="B57" s="5">
         <v>1</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -1834,11 +2107,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
+    <row r="58" spans="1:15" ht="112">
+      <c r="A58" s="4">
         <v>8</v>
       </c>
-      <c r="B58" s="5" t="n">
+      <c r="B58" s="5">
         <v>8</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -1854,11 +2127,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" s="5" t="n">
+    <row r="59" spans="1:15" ht="70">
+      <c r="A59" s="4">
+        <v>1</v>
+      </c>
+      <c r="B59" s="5">
         <v>1</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -1874,11 +2147,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="n">
+    <row r="60" spans="1:15" ht="409">
+      <c r="A60" s="4">
         <v>88</v>
       </c>
-      <c r="B60" s="5" t="n">
+      <c r="B60" s="5">
         <v>88</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -1894,11 +2167,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" s="5" t="n">
+    <row r="61" spans="1:15" ht="28">
+      <c r="A61" s="4">
+        <v>1</v>
+      </c>
+      <c r="B61" s="5">
         <v>1</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -1914,30 +2187,30 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:15">
+      <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" ht="56">
+      <c r="A63" s="4">
         <v>3</v>
       </c>
-      <c r="B63" s="5" t="n">
+      <c r="B63" s="5">
         <v>3</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -1953,11 +2226,11 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="n">
+    <row r="64" spans="1:15" ht="70">
+      <c r="A64" s="4">
         <v>10</v>
       </c>
-      <c r="B64" s="5" t="n">
+      <c r="B64" s="5">
         <v>10</v>
       </c>
       <c r="C64" s="5" t="s">
@@ -1973,11 +2246,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="n">
+    <row r="65" spans="1:15" ht="28">
+      <c r="A65" s="4">
         <v>2</v>
       </c>
-      <c r="B65" s="5" t="n">
+      <c r="B65" s="5">
         <v>2</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -1993,11 +2266,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="n">
+    <row r="66" spans="1:15" ht="28">
+      <c r="A66" s="4">
         <v>2</v>
       </c>
-      <c r="B66" s="5" t="n">
+      <c r="B66" s="5">
         <v>2</v>
       </c>
       <c r="C66" s="5" t="s">
@@ -2013,30 +2286,30 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:15">
+      <c r="A67" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B68" s="5" t="n">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="1:15" ht="56">
+      <c r="A68" s="4">
+        <v>1</v>
+      </c>
+      <c r="B68" s="5">
         <v>1</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -2052,30 +2325,30 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:15">
+      <c r="A69" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B70" s="5" t="n">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="1:15" ht="70">
+      <c r="A70" s="4">
+        <v>1</v>
+      </c>
+      <c r="B70" s="5">
         <v>1</v>
       </c>
       <c r="C70" s="5" t="s">
@@ -2091,11 +2364,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="n">
+    <row r="71" spans="1:15" ht="70">
+      <c r="A71" s="4">
         <v>11</v>
       </c>
-      <c r="B71" s="5" t="n">
+      <c r="B71" s="5">
         <v>11</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -2111,11 +2384,11 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B72" s="5" t="n">
+    <row r="72" spans="1:15" ht="84">
+      <c r="A72" s="4">
+        <v>1</v>
+      </c>
+      <c r="B72" s="5">
         <v>1</v>
       </c>
       <c r="C72" s="5" t="s">
@@ -2131,30 +2404,30 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
+    <row r="73" spans="1:15">
+      <c r="A73" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="n">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+    </row>
+    <row r="74" spans="1:15" ht="42">
+      <c r="A74" s="4">
         <v>6</v>
       </c>
-      <c r="B74" s="5" t="n">
+      <c r="B74" s="5">
         <v>6</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -2170,30 +2443,30 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:15">
+      <c r="A75" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B76" s="5" t="n">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+    </row>
+    <row r="76" spans="1:15" ht="70">
+      <c r="A76" s="4">
+        <v>1</v>
+      </c>
+      <c r="B76" s="5">
         <v>1</v>
       </c>
       <c r="C76" s="5" t="s">
@@ -2209,30 +2482,30 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:15">
+      <c r="A77" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B78" s="5" t="n">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+    </row>
+    <row r="78" spans="1:15" ht="140">
+      <c r="A78" s="4">
+        <v>1</v>
+      </c>
+      <c r="B78" s="5">
         <v>1</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -2248,11 +2521,11 @@
         <v>165</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B79" s="5" t="n">
+    <row r="79" spans="1:15" ht="28">
+      <c r="A79" s="4">
+        <v>1</v>
+      </c>
+      <c r="B79" s="5">
         <v>1</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -2268,11 +2541,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B80" s="5" t="n">
+    <row r="80" spans="1:15" ht="84">
+      <c r="A80" s="4">
+        <v>1</v>
+      </c>
+      <c r="B80" s="5">
         <v>1</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -2288,11 +2561,11 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B81" s="5" t="n">
+    <row r="81" spans="1:6" ht="70">
+      <c r="A81" s="4">
+        <v>1</v>
+      </c>
+      <c r="B81" s="5">
         <v>1</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -2308,11 +2581,11 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B82" s="5" t="n">
+    <row r="82" spans="1:6" ht="42">
+      <c r="A82" s="4">
+        <v>1</v>
+      </c>
+      <c r="B82" s="5">
         <v>1</v>
       </c>
       <c r="C82" s="5" t="s">
@@ -2328,11 +2601,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B83" s="5" t="n">
+    <row r="83" spans="1:6">
+      <c r="A83" s="4">
+        <v>1</v>
+      </c>
+      <c r="B83" s="5">
         <v>1</v>
       </c>
       <c r="C83" s="5" t="s">
@@ -2348,11 +2621,11 @@
         <v>184</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B84" s="5" t="n">
+    <row r="84" spans="1:6" ht="56">
+      <c r="A84" s="4">
+        <v>1</v>
+      </c>
+      <c r="B84" s="5">
         <v>1</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -2368,11 +2641,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B85" s="5" t="n">
+    <row r="85" spans="1:6" ht="56">
+      <c r="A85" s="4">
+        <v>1</v>
+      </c>
+      <c r="B85" s="5">
         <v>1</v>
       </c>
       <c r="C85" s="5" t="s">
@@ -2388,11 +2661,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B86" s="5" t="n">
+    <row r="86" spans="1:6" ht="28">
+      <c r="A86" s="4">
+        <v>1</v>
+      </c>
+      <c r="B86" s="5">
         <v>1</v>
       </c>
       <c r="C86" s="5" t="s">
@@ -2410,32 +2683,31 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A69:O69"/>
+    <mergeCell ref="A73:O73"/>
+    <mergeCell ref="A75:O75"/>
+    <mergeCell ref="A77:O77"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A50:O50"/>
+    <mergeCell ref="A62:O62"/>
+    <mergeCell ref="A67:O67"/>
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="A10:O10"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A6:O6"/>
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="A10:O10"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A21:O21"/>
-    <mergeCell ref="A50:O50"/>
-    <mergeCell ref="A62:O62"/>
-    <mergeCell ref="A67:O67"/>
-    <mergeCell ref="A69:O69"/>
-    <mergeCell ref="A73:O73"/>
-    <mergeCell ref="A75:O75"/>
-    <mergeCell ref="A77:O77"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>